--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -401,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -422,8 +422,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="str">
+        <v>Yangi Ism</v>
       </c>
       <c r="B2" t="str">
         <v>Firdavs</v>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -550,9 +550,6 @@
       <c r="D2">
         <v>1200</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -567,9 +564,6 @@
       <c r="D3">
         <v>800</v>
       </c>
-      <c r="E3">
-        <f>C3*D3</f>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -584,9 +578,6 @@
       <c r="D4">
         <v>1200</v>
       </c>
-      <c r="E4">
-        <f>C4*D4</f>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -601,9 +592,6 @@
       <c r="D5">
         <v>800</v>
       </c>
-      <c r="E5">
-        <f>C5*D5</f>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -618,9 +606,6 @@
       <c r="D6">
         <v>1200</v>
       </c>
-      <c r="E6">
-        <f>C6*D6</f>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -635,9 +620,6 @@
       <c r="D7">
         <v>800</v>
       </c>
-      <c r="E7">
-        <f>C7*D7</f>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -651,9 +633,6 @@
       </c>
       <c r="D8" t="str">
         <v>Grand Total:</v>
-      </c>
-      <c r="E8">
-        <f>SUM(E2:E7)</f>
       </c>
     </row>
   </sheetData>
@@ -667,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -700,9 +679,6 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <f>IF(C2&gt;D2,"OK","Low")</f>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -717,9 +693,6 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <f>IF(C3&gt;D3,"OK","Low")</f>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -734,9 +707,6 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <f>IF(C4&gt;D4,"OK","Low")</f>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -751,9 +721,6 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <f>IF(C5&gt;D5,"OK","Low")</f>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -767,9 +734,6 @@
       </c>
       <c r="D6">
         <v>15</v>
-      </c>
-      <c r="E6">
-        <f>IF(C6&gt;D6,"OK","Low")</f>
       </c>
     </row>
   </sheetData>

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -401,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -422,8 +422,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Yangi Ism</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <v>Firdavs</v>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -550,6 +550,10 @@
       <c r="D2">
         <v>1200</v>
       </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -564,6 +568,10 @@
       <c r="D3">
         <v>800</v>
       </c>
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>20000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -578,6 +586,10 @@
       <c r="D4">
         <v>1200</v>
       </c>
+      <c r="E4">
+        <f>C4*D4</f>
+        <v>18000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -592,6 +604,10 @@
       <c r="D5">
         <v>800</v>
       </c>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -606,6 +622,10 @@
       <c r="D6">
         <v>1200</v>
       </c>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -620,6 +640,10 @@
       <c r="D7">
         <v>800</v>
       </c>
+      <c r="E7">
+        <f>C7*D7</f>
+        <v>32000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -633,6 +657,10 @@
       </c>
       <c r="D8" t="str">
         <v>Grand Total:</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>130000</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -679,6 +707,10 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="E2" t="str">
+        <f>IF(C2&gt;D2,"OK","Low")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -693,6 +725,10 @@
       <c r="D3">
         <v>10</v>
       </c>
+      <c r="E3" t="str">
+        <f>IF(C3&gt;D3,"OK","Low")</f>
+        <v>Low</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -707,6 +743,10 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="E4" t="str">
+        <f>IF(C4&gt;D4,"OK","Low")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -721,6 +761,10 @@
       <c r="D5">
         <v>20</v>
       </c>
+      <c r="E5" t="str">
+        <f>IF(C5&gt;D5,"OK","Low")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -734,6 +778,10 @@
       </c>
       <c r="D6">
         <v>15</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C6&gt;D6,"OK","Low")</f>
+        <v>Low</v>
       </c>
     </row>
   </sheetData>

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -399,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -506,9 +506,20 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Asad</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -517,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -674,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -437,7 +437,7 @@
         <v>Engineering</v>
       </c>
       <c r="E2" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
@@ -462,55 +462,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>Nodira</v>
+        <v>Lola</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>nodira@example.com</v>
+        <v>lola@gmail.com</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>HR</v>
+        <v>Hr</v>
       </c>
       <c r="E4" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>Bekzod</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>bekzod@example.com</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>Engineering</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>Shaxriyor</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>shaxriyor@gmail.com</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>Developer</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Sales" sheetId="2" r:id="rId2"/>
-    <sheet name="Inventory" sheetId="3" r:id="rId3"/>
+    <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
+    <sheet name="Продажи" sheetId="2" r:id="rId2"/>
+    <sheet name="Склад" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -34,9 +34,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -67,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,82 +399,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>ID</v>
       </c>
-      <c r="B1" s="1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" s="1" t="str">
+      <c r="B1" t="str">
+        <v>Имя</v>
+      </c>
+      <c r="C1" t="str">
         <v>Email</v>
       </c>
-      <c r="D1" s="1" t="str">
-        <v>Department</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>Salary</v>
+      <c r="D1" t="str">
+        <v>Отдел</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Зарплата</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <v>Firdavs</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>firdavs@example.com</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Engineering</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6000</v>
+      <c r="B2" t="str">
+        <v>Алексей Иванов</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ivanov@example.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Разработка</v>
+      </c>
+      <c r="E2">
+        <v>120000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <v>Jasur</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>jasur@example.com</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>Marketing</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4500</v>
+      <c r="B3" t="str">
+        <v>Мария Петрова</v>
+      </c>
+      <c r="C3" t="str">
+        <v>petrova@example.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Маркетинг</v>
+      </c>
+      <c r="E3">
+        <v>95000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <v>Lola</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>lola@gmail.com</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>Hr</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4000</v>
+      <c r="B4" t="str">
+        <v>Дмитрий Смирнов</v>
+      </c>
+      <c r="C4" t="str">
+        <v>smirnov@example.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>HR</v>
+      </c>
+      <c r="E4">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ольга Козлова</v>
+      </c>
+      <c r="C5" t="str">
+        <v>kozlova@example.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Разработка</v>
+      </c>
+      <c r="E5">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Иван Волков</v>
+      </c>
+      <c r="C6" t="str">
+        <v>volkov@example.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Финансы</v>
+      </c>
+      <c r="E6">
+        <v>110000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -485,145 +517,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Month</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>Product</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>Quantity</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>Price</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>Total</v>
+      <c r="A1" t="str">
+        <v>Месяц</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Товар</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Количество</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Цена</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Итого</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>January</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" t="str">
+        <v>Январь</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Ноутбук</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2">
+        <v>85000</v>
+      </c>
+      <c r="E2">
         <f>C2*D2</f>
-        <v>12000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>January</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" t="str">
+        <v>Январь</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Телефон</v>
+      </c>
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
-        <v>800</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3">
+        <v>45000</v>
+      </c>
+      <c r="E3">
         <f>C3*D3</f>
-        <v>20000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>February</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" t="str">
+        <v>Февраль</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Ноутбук</v>
+      </c>
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4">
+        <v>85000</v>
+      </c>
+      <c r="E4">
         <f>C4*D4</f>
-        <v>18000</v>
+        <v>1275000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>February</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" t="str">
+        <v>Февраль</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Телефон</v>
+      </c>
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="1">
-        <v>800</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>45000</v>
+      </c>
+      <c r="E5">
         <f>C5*D5</f>
-        <v>24000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>March</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" t="str">
+        <v>Март</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Ноутбук</v>
+      </c>
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6">
+        <v>85000</v>
+      </c>
+      <c r="E6">
         <f>C6*D6</f>
-        <v>24000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>March</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" t="str">
+        <v>Март</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Телефон</v>
+      </c>
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
-        <v>800</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7">
+        <v>45000</v>
+      </c>
+      <c r="E7">
         <f>C7*D7</f>
-        <v>32000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="1" t="str">
-        <v>Grand Total:</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>Общий итог:</v>
+      </c>
+      <c r="E8">
         <f>SUM(E2:E7)</f>
-        <v>130000</v>
+        <v>8100000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
@@ -634,118 +674,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Item</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>Stock</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>Min Stock</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>Status</v>
+      <c r="A1" t="str">
+        <v>Товар</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Категория</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Остаток</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Мин. остаток</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Статус</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" t="str">
+        <v>Ноутбук</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Электроника</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>IF(C2&gt;D2,"OK","Low")</f>
+      <c r="E2" t="str">
+        <f>IF(C2&gt;D2,"OK","Мало")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" t="str">
+        <v>Телефон</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Электроника</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>IF(C3&gt;D3,"OK","Low")</f>
-        <v>Low</v>
+      <c r="E3" t="str">
+        <f>IF(C3&gt;D3,"OK","Мало")</f>
+        <v>Мало</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>Desk</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" t="str">
+        <v>Стол</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Мебель</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>IF(C4&gt;D4,"OK","Low")</f>
+      <c r="E4" t="str">
+        <f>IF(C4&gt;D4,"OK","Мало")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>Chair</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" t="str">
+        <v>Кресло</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Мебель</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>IF(C5&gt;D5,"OK","Low")</f>
+      <c r="E5" t="str">
+        <f>IF(C5&gt;D5,"OK","Мало")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>Monitor</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" t="str">
+        <v>Монитор</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Электроника</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f>IF(C6&gt;D6,"OK","Low")</f>
-        <v>Low</v>
+      <c r="E6" t="str">
+        <f>IF(C6&gt;D6,"OK","Мало")</f>
+        <v>Мало</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
